--- a/camp-backend/src/main/resources/templates/exam_template.xlsx
+++ b/camp-backend/src/main/resources/templates/exam_template.xlsx
@@ -81,9 +81,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -369,13 +372,14 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -390,7 +394,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
